--- a/Jogos_da_Semana_FlashScore_2025-03-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-12.xlsx
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
         <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
         <v>2.2</v>
@@ -712,16 +712,16 @@
         <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T2" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -736,10 +736,10 @@
         <v>3.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA2" t="n">
         <v>9</v>
@@ -790,7 +790,7 @@
         <v>41</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -875,7 +875,7 @@
         <v>2.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z3" t="n">
         <v>2.05</v>
@@ -967,7 +967,7 @@
         <v>3.55</v>
       </c>
       <c r="H4" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I4" t="n">
         <v>2.4</v>
@@ -976,48 +976,48 @@
         <v>4.25</v>
       </c>
       <c r="K4" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="M4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N4" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="O4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Z4" t="n">
         <v>1.6</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1.65</v>
       </c>
       <c r="AA4" t="n">
         <v>7.3</v>
@@ -1038,35 +1038,37 @@
         <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="AH4" t="n">
         <v>5.3</v>
       </c>
       <c r="AI4" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>120</v>
       </c>
-      <c r="AK4" t="inlineStr"/>
+      <c r="AK4" t="n">
+        <v>101</v>
+      </c>
       <c r="AL4" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AM4" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AN4" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AQ4" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -1101,54 +1103,54 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H5" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="K5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="M5" t="n">
         <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="V5" t="n">
         <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X5" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="Y5" t="n">
         <v>2.12</v>
@@ -1157,53 +1159,55 @@
         <v>1.65</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AB5" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD5" t="n">
         <v>65</v>
       </c>
       <c r="AE5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AF5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AI5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ5" t="n">
         <v>120</v>
       </c>
-      <c r="AK5" t="inlineStr"/>
+      <c r="AK5" t="n">
+        <v>101</v>
+      </c>
       <c r="AL5" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AM5" t="n">
         <v>9.25</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ5" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -1238,105 +1242,105 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.62</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.65</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="V6" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W6" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X6" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AA6" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="AC6" t="n">
         <v>8.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>32</v>
       </c>
       <c r="AG6" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="n">
         <v>900</v>
       </c>
       <c r="AL6" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AN6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AP6" t="n">
         <v>65</v>
@@ -1386,7 +1390,7 @@
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K7" t="n">
         <v>2.1</v>
@@ -1395,13 +1399,13 @@
         <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
         <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
         <v>3.2</v>
@@ -1418,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
         <v>1.44</v>
@@ -1525,31 +1529,31 @@
         <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="K8" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L8" t="n">
         <v>10</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1557,7 +1561,7 @@
         <v>3.4</v>
       </c>
       <c r="V8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W8" t="n">
         <v>1.4</v>
@@ -1813,7 +1817,7 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -1822,10 +1826,10 @@
         <v>3.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1940,7 +1944,7 @@
         <v>2.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
         <v>2.05</v>
@@ -2029,7 +2033,7 @@
         <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
@@ -2253,7 +2257,7 @@
         <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X13" t="n">
         <v>3</v>
@@ -2392,7 +2396,7 @@
         <v>1.62</v>
       </c>
       <c r="W14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X14" t="n">
         <v>3.75</v>
@@ -2517,7 +2521,7 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
         <v>2.05</v>
@@ -2531,7 +2535,7 @@
         <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X15" t="n">
         <v>3.25</v>
@@ -2626,28 +2630,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L16" t="n">
         <v>3.6</v>
       </c>
-      <c r="I16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.75</v>
-      </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
@@ -2656,21 +2660,21 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X16" t="n">
         <v>3</v>
@@ -2682,25 +2686,25 @@
         <v>2.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
         <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
         <v>23</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
         <v>7</v>
@@ -2721,13 +2725,13 @@
         <v>17</v>
       </c>
       <c r="AN16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO16" t="n">
         <v>34</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>29</v>
@@ -2795,7 +2799,7 @@
         <v>4.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="R17" t="n">
         <v>2.25</v>
@@ -2813,7 +2817,7 @@
         <v>1.5</v>
       </c>
       <c r="W17" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X17" t="n">
         <v>3.4</v>
@@ -3043,44 +3047,44 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H19" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I19" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="J19" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="K19" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L19" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P19" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R19" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="V19" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W19" t="n">
         <v>1.39</v>
@@ -3095,7 +3099,7 @@
         <v>1.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AB19" t="n">
         <v>7.2</v>
@@ -3104,22 +3108,22 @@
         <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AE19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AI19" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ19" t="n">
         <v>80</v>
@@ -3128,22 +3132,22 @@
         <v>600</v>
       </c>
       <c r="AL19" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AM19" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN19" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AP19" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AQ19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -3786,22 +3790,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="H26" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I26" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="J26" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="K26" t="n">
-        <v>2.27</v>
+        <v>2.24</v>
       </c>
       <c r="L26" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -3823,7 +3827,7 @@
         <v>3.6</v>
       </c>
       <c r="V26" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W26" t="n">
         <v>1.4</v>
@@ -3832,37 +3836,37 @@
         <v>2.75</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.31</v>
+        <v>2.22</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="AA26" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AE26" t="n">
         <v>11</v>
       </c>
       <c r="AF26" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AG26" t="n">
         <v>7.2</v>
       </c>
       <c r="AH26" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
         <v>101</v>
@@ -3871,22 +3875,22 @@
         <v>101</v>
       </c>
       <c r="AL26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM26" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AN26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO26" t="n">
         <v>101</v>
       </c>
       <c r="AP26" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AQ26" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-12.xlsx
@@ -688,7 +688,7 @@
         <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.2</v>
@@ -825,13 +825,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J3" t="n">
         <v>3.5</v>
@@ -849,10 +849,10 @@
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
         <v>1.93</v>
@@ -964,28 +964,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I4" t="n">
         <v>2.4</v>
       </c>
       <c r="J4" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="L4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="N4" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="O4" t="n">
         <v>1.62</v>
@@ -994,7 +994,7 @@
         <v>2.15</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="R4" t="n">
         <v>1.38</v>
@@ -1008,13 +1008,13 @@
         <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X4" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Z4" t="n">
         <v>1.6</v>
@@ -1032,16 +1032,16 @@
         <v>55</v>
       </c>
       <c r="AE4" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="n">
         <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AI4" t="n">
         <v>18.5</v>
@@ -1059,10 +1059,10 @@
         <v>10</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AO4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP4" t="n">
         <v>27</v>
@@ -1103,87 +1103,87 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.9</v>
+        <v>4.25</v>
       </c>
       <c r="H5" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="J5" t="n">
-        <v>4.45</v>
+        <v>4.7</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="L5" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P5" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="V5" t="n">
         <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="X5" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AA5" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AB5" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AC5" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF5" t="n">
         <v>65</v>
       </c>
-      <c r="AE5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>60</v>
-      </c>
       <c r="AG5" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AI5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ5" t="n">
         <v>120</v>
@@ -1192,19 +1192,19 @@
         <v>101</v>
       </c>
       <c r="AL5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AM5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AN5" t="n">
         <v>9.25</v>
       </c>
-      <c r="AN5" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>45</v>
@@ -1242,87 +1242,87 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K6" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="L6" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="V6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X6" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="Y6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Z6" t="n">
         <v>1.72</v>
       </c>
       <c r="AA6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC6" t="n">
         <v>8.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF6" t="n">
         <v>32</v>
       </c>
       <c r="AG6" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AI6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ6" t="n">
         <v>100</v>
@@ -1331,22 +1331,22 @@
         <v>900</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AN6" t="n">
         <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AP6" t="n">
         <v>65</v>
       </c>
       <c r="AQ6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -1411,10 +1411,10 @@
         <v>3.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -1550,10 +1550,10 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1585,7 +1585,7 @@
         <v>9.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
@@ -1594,20 +1594,20 @@
         <v>41</v>
       </c>
       <c r="AG8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>10</v>
       </c>
-      <c r="AH8" t="n">
-        <v>11</v>
-      </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
@@ -1938,7 +1938,7 @@
         <v>2.6</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
         <v>2.7</v>
@@ -1965,10 +1965,10 @@
         <v>3.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R11" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1985,10 +1985,10 @@
         <v>2.63</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA11" t="n">
         <v>8</v>
@@ -2124,7 +2124,7 @@
         <v>2.75</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Z12" t="n">
         <v>2</v>
@@ -2243,7 +2243,7 @@
         <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R13" t="n">
         <v>2.05</v>
@@ -2257,13 +2257,13 @@
         <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X13" t="n">
         <v>3</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Z13" t="n">
         <v>2.1</v>
@@ -2382,7 +2382,7 @@
         <v>5.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R14" t="n">
         <v>2.5</v>
@@ -2396,13 +2396,13 @@
         <v>1.62</v>
       </c>
       <c r="W14" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X14" t="n">
         <v>3.75</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Z14" t="n">
         <v>2.2</v>
@@ -2521,7 +2521,7 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R15" t="n">
         <v>2.05</v>
@@ -2535,13 +2535,13 @@
         <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X15" t="n">
         <v>3.25</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Z15" t="n">
         <v>2.25</v>
@@ -2674,13 +2674,13 @@
         <v>1.33</v>
       </c>
       <c r="W16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X16" t="n">
         <v>3</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Z16" t="n">
         <v>2.1</v>
@@ -2775,7 +2775,7 @@
         <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="J17" t="n">
         <v>4.33</v>
@@ -2817,13 +2817,13 @@
         <v>1.5</v>
       </c>
       <c r="W17" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X17" t="n">
         <v>3.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Z17" t="n">
         <v>2.2</v>
@@ -2912,44 +2912,44 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="H18" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I18" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="J18" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="K18" t="n">
         <v>2.22</v>
       </c>
       <c r="L18" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P18" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R18" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="V18" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W18" t="n">
         <v>1.39</v>
@@ -2967,28 +2967,28 @@
         <v>5.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AC18" t="n">
         <v>8.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF18" t="n">
         <v>35</v>
       </c>
       <c r="AG18" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ18" t="n">
         <v>120</v>
@@ -2997,22 +2997,22 @@
         <v>900</v>
       </c>
       <c r="AL18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AM18" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AP18" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AQ18" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -3047,13 +3047,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="J19" t="n">
         <v>2.05</v>
@@ -3062,7 +3062,7 @@
         <v>2.18</v>
       </c>
       <c r="L19" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
         <v>1.72</v>
       </c>
       <c r="R19" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -3093,34 +3093,34 @@
         <v>2.57</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC19" t="n">
         <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AE19" t="n">
         <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AI19" t="n">
         <v>17</v>
@@ -3132,16 +3132,16 @@
         <v>600</v>
       </c>
       <c r="AL19" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AM19" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN19" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO19" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AP19" t="n">
         <v>65</v>
@@ -3790,107 +3790,111 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I26" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J26" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="K26" t="n">
-        <v>2.24</v>
+        <v>2.15</v>
       </c>
       <c r="L26" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+        <v>6.1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7.3</v>
+      </c>
       <c r="O26" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="R26" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="V26" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="W26" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X26" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="AA26" t="n">
-        <v>4.4</v>
+        <v>6.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.8</v>
+        <v>8.25</v>
       </c>
       <c r="AD26" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH26" t="n">
         <v>7.6</v>
       </c>
-      <c r="AE26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>6.2</v>
-      </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ26" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="n">
-        <v>101</v>
+        <v>800</v>
       </c>
       <c r="AL26" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO26" t="n">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="AP26" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AQ26" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-12.xlsx
@@ -964,28 +964,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="K4" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="M4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N4" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="O4" t="n">
         <v>1.62</v>
@@ -994,7 +994,7 @@
         <v>2.15</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="R4" t="n">
         <v>1.38</v>
@@ -1014,37 +1014,37 @@
         <v>2.15</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AI4" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>120</v>
@@ -1053,22 +1053,22 @@
         <v>101</v>
       </c>
       <c r="AL4" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AM4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AN4" t="n">
         <v>10</v>
       </c>
-      <c r="AN4" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AO4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP4" t="n">
         <v>26</v>
       </c>
-      <c r="AP4" t="n">
-        <v>27</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -1103,37 +1103,37 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="I5" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="L5" t="n">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
         <v>1.55</v>
       </c>
       <c r="P5" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R5" t="n">
         <v>1.44</v>
@@ -1141,7 +1141,7 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="V5" t="n">
         <v>1.15</v>
@@ -1153,37 +1153,37 @@
         <v>2.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AA5" t="n">
-        <v>8.75</v>
+        <v>7.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AE5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AF5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ5" t="n">
         <v>120</v>
@@ -1192,19 +1192,19 @@
         <v>101</v>
       </c>
       <c r="AL5" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AM5" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>45</v>
@@ -1411,10 +1411,10 @@
         <v>3.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -1520,22 +1520,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H8" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K8" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1550,18 +1550,18 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W8" t="n">
         <v>1.4</v>
@@ -1570,10 +1570,10 @@
         <v>2.75</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA8" t="n">
         <v>5.5</v>
@@ -1582,7 +1582,7 @@
         <v>5.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
         <v>7.5</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
         <v>3.7</v>
@@ -1731,7 +1731,7 @@
         <v>26</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
         <v>7</v>
@@ -1752,7 +1752,7 @@
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
         <v>51</v>
@@ -1796,16 +1796,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
         <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
@@ -1817,7 +1817,7 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -1852,10 +1852,10 @@
         <v>1.83</v>
       </c>
       <c r="AA10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
         <v>9.5</v>
@@ -1864,7 +1864,7 @@
         <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
         <v>29</v>
@@ -1891,7 +1891,7 @@
         <v>15</v>
       </c>
       <c r="AN10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
         <v>34</v>
@@ -1900,7 +1900,7 @@
         <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -1965,10 +1965,10 @@
         <v>3.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1985,10 +1985,10 @@
         <v>2.63</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA11" t="n">
         <v>8</v>
@@ -2092,10 +2092,10 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
@@ -2104,10 +2104,10 @@
         <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R12" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -2124,7 +2124,7 @@
         <v>2.75</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Z12" t="n">
         <v>2</v>
@@ -2237,24 +2237,24 @@
         <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W13" t="n">
         <v>1.36</v>
@@ -2263,7 +2263,7 @@
         <v>3</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Z13" t="n">
         <v>2.1</v>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H14" t="n">
         <v>4.75</v>
@@ -2361,13 +2361,13 @@
         <v>5.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K14" t="n">
         <v>2.6</v>
       </c>
       <c r="L14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
@@ -2382,13 +2382,17 @@
         <v>5.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
+        <v>2.6</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.05</v>
+      </c>
       <c r="U14" t="n">
         <v>2.2</v>
       </c>
@@ -2402,10 +2406,10 @@
         <v>3.75</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA14" t="n">
         <v>9.5</v>
@@ -2423,7 +2427,7 @@
         <v>11</v>
       </c>
       <c r="AF14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG14" t="n">
         <v>19</v>
@@ -2512,7 +2516,7 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
         <v>1.22</v>
@@ -2521,7 +2525,7 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
         <v>2.05</v>
@@ -2541,7 +2545,7 @@
         <v>3.25</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z15" t="n">
         <v>2.25</v>
@@ -2654,16 +2658,16 @@
         <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R16" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -2680,7 +2684,7 @@
         <v>3</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Z16" t="n">
         <v>2.1</v>
@@ -2775,10 +2779,10 @@
         <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="J17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K17" t="n">
         <v>2.38</v>
@@ -2823,7 +2827,7 @@
         <v>3.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Z17" t="n">
         <v>2.2</v>
@@ -2835,7 +2839,7 @@
         <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD17" t="n">
         <v>41</v>
@@ -2844,7 +2848,7 @@
         <v>29</v>
       </c>
       <c r="AF17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG17" t="n">
         <v>15</v>
@@ -2865,7 +2869,7 @@
         <v>9.5</v>
       </c>
       <c r="AM17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN17" t="n">
         <v>8.5</v>
@@ -3181,43 +3185,105 @@
           <t>Tukums 2000</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6</v>
+      </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.1</v>
+      </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
+      <c r="U20" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.49</v>
+      </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
+      <c r="Y20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>350</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3250,43 +3316,109 @@
           <t>Metta</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.5</v>
+      </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+      <c r="O21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.78</v>
+      </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
+      <c r="U21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3443,111 +3575,111 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="H23" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="K23" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P23" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="V23" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W23" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X23" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD23" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG23" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AH23" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="AI23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK23" t="n">
         <v>700</v>
       </c>
       <c r="AL23" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AM23" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AN23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO23" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP23" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AQ23" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24">

--- a/Jogos_da_Semana_FlashScore_2025-03-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-12.xlsx
@@ -685,10 +685,10 @@
         <v>1.62</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>2.2</v>
@@ -875,7 +875,7 @@
         <v>2.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Z3" t="n">
         <v>2.05</v>
@@ -964,22 +964,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H4" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="I4" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="J4" t="n">
         <v>4.35</v>
       </c>
       <c r="K4" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="L4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M4" t="n">
         <v>1.16</v>
@@ -991,81 +991,81 @@
         <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="R4" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W4" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="X4" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AB4" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE4" t="n">
         <v>45</v>
       </c>
       <c r="AF4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="n">
         <v>4.55</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AI4" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK4" t="n">
         <v>101</v>
       </c>
       <c r="AL4" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AM4" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ4" t="n">
         <v>45</v>
@@ -1103,72 +1103,72 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="J5" t="n">
         <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="L5" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="P5" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="V5" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X5" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AA5" t="n">
         <v>7.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="n">
         <v>13.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE5" t="n">
         <v>45</v>
@@ -1177,13 +1177,13 @@
         <v>60</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AI5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ5" t="n">
         <v>120</v>
@@ -1192,19 +1192,19 @@
         <v>101</v>
       </c>
       <c r="AL5" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AM5" t="n">
         <v>9.5</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ5" t="n">
         <v>45</v>
@@ -1390,7 +1390,7 @@
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K7" t="n">
         <v>2.1</v>
@@ -1529,7 +1529,7 @@
         <v>9.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K8" t="n">
         <v>2.3</v>
@@ -1544,16 +1544,16 @@
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1687,10 +1687,10 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R9" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -1817,7 +1817,7 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
         <v>2.7</v>
@@ -1947,7 +1947,7 @@
         <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
         <v>3.4</v>
@@ -1973,10 +1973,10 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W11" t="n">
         <v>1.44</v>
@@ -1985,10 +1985,10 @@
         <v>2.63</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA11" t="n">
         <v>8</v>
@@ -2006,10 +2006,10 @@
         <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH11" t="n">
         <v>6.5</v>
@@ -2021,10 +2021,10 @@
         <v>51</v>
       </c>
       <c r="AK11" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM11" t="n">
         <v>13</v>
@@ -2083,7 +2083,7 @@
         <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
@@ -2104,10 +2104,10 @@
         <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="R12" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -2118,22 +2118,22 @@
         <v>1.36</v>
       </c>
       <c r="W12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC12" t="n">
         <v>9</v>
@@ -2160,7 +2160,7 @@
         <v>41</v>
       </c>
       <c r="AK12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="n">
         <v>13</v>
@@ -2213,16 +2213,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="n">
         <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K13" t="n">
         <v>2.25</v>
@@ -2237,24 +2237,24 @@
         <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W13" t="n">
         <v>1.36</v>
@@ -2278,7 +2278,7 @@
         <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>15</v>
@@ -2287,7 +2287,7 @@
         <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
         <v>7</v>
@@ -2302,7 +2302,7 @@
         <v>151</v>
       </c>
       <c r="AL13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM13" t="n">
         <v>19</v>
@@ -2311,7 +2311,7 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP13" t="n">
         <v>26</v>
@@ -2382,7 +2382,7 @@
         <v>5.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R14" t="n">
         <v>2.6</v>
@@ -2510,13 +2510,13 @@
         <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O15" t="n">
         <v>1.22</v>
@@ -2525,7 +2525,7 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R15" t="n">
         <v>2.05</v>
@@ -2557,13 +2557,13 @@
         <v>17</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF15" t="n">
         <v>29</v>
@@ -2637,7 +2637,7 @@
         <v>2.15</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
         <v>3</v>
@@ -2649,7 +2649,7 @@
         <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2664,10 +2664,10 @@
         <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R16" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -2678,19 +2678,19 @@
         <v>1.33</v>
       </c>
       <c r="W16" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB16" t="n">
         <v>11</v>
@@ -2705,25 +2705,25 @@
         <v>17</v>
       </c>
       <c r="AF16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM16" t="n">
         <v>17</v>
@@ -2735,10 +2735,10 @@
         <v>34</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2803,7 +2803,7 @@
         <v>4.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="R17" t="n">
         <v>2.25</v>
@@ -2812,7 +2812,7 @@
         <v>2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="U17" t="n">
         <v>2.5</v>
@@ -3186,76 +3186,76 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="J20" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="K20" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>2.45</v>
+        <v>2.39</v>
       </c>
       <c r="V20" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AC20" t="n">
         <v>6.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE20" t="n">
         <v>9</v>
       </c>
       <c r="AF20" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG20" t="n">
         <v>12.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AI20" t="n">
         <v>13</v>
@@ -3264,25 +3264,25 @@
         <v>50</v>
       </c>
       <c r="AK20" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AL20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AM20" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AN20" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AO20" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AP20" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AQ20" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
@@ -3575,22 +3575,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="H23" t="n">
         <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J23" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="K23" t="n">
         <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
@@ -3631,19 +3631,19 @@
         <v>1.85</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB23" t="n">
         <v>10.25</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="n">
         <v>32</v>
@@ -3658,28 +3658,28 @@
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK23" t="n">
         <v>700</v>
       </c>
       <c r="AL23" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AM23" t="n">
         <v>15.5</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AO23" t="n">
         <v>40</v>
       </c>
       <c r="AP23" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
@@ -3925,10 +3925,10 @@
         <v>1.5</v>
       </c>
       <c r="H26" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I26" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="J26" t="n">
         <v>2.07</v>
@@ -3943,7 +3943,7 @@
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="O26" t="n">
         <v>1.3</v>
@@ -3955,7 +3955,7 @@
         <v>1.88</v>
       </c>
       <c r="R26" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -3981,40 +3981,40 @@
         <v>6.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AC26" t="n">
         <v>8.25</v>
       </c>
       <c r="AD26" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>12.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG26" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AH26" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AI26" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AJ26" t="n">
         <v>100</v>
       </c>
       <c r="AK26" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AL26" t="n">
         <v>15.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN26" t="n">
         <v>20</v>
@@ -4023,7 +4023,7 @@
         <v>150</v>
       </c>
       <c r="AP26" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AQ26" t="n">
         <v>70</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ26"/>
+  <dimension ref="A1:AS26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,6 +649,16 @@
           <t>Odd_CS_2-3</t>
         </is>
       </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over2_FT</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under2_FT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -682,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -712,16 +722,16 @@
         <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -730,43 +740,43 @@
         <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA2" t="n">
         <v>9</v>
       </c>
       <c r="AB2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>41</v>
@@ -775,10 +785,10 @@
         <v>151</v>
       </c>
       <c r="AL2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN2" t="n">
         <v>17</v>
@@ -792,6 +802,8 @@
       <c r="AQ2" t="n">
         <v>41</v>
       </c>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -837,7 +849,7 @@
         <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
         <v>3</v>
@@ -849,16 +861,16 @@
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -899,7 +911,7 @@
         <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
         <v>6.5</v>
@@ -931,6 +943,8 @@
       <c r="AQ3" t="n">
         <v>26</v>
       </c>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -964,48 +978,48 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.65</v>
+        <v>2.47</v>
       </c>
       <c r="H4" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.47</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4.35</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>1.75</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P4" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="R4" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
         <v>1.65</v>
@@ -1014,62 +1028,64 @@
         <v>2.12</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="AD4" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG4" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AI4" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK4" t="n">
         <v>101</v>
       </c>
       <c r="AL4" t="n">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="AM4" t="n">
-        <v>10.75</v>
+        <v>17.5</v>
       </c>
       <c r="AN4" t="n">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AP4" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="AQ4" t="n">
-        <v>45</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1103,112 +1119,114 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="H5" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.27</v>
+        <v>2.47</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.72</v>
+        <v>2.55</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="V5" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X5" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AE5" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AF5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG5" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AI5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK5" t="n">
         <v>101</v>
       </c>
       <c r="AL5" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="AM5" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AO5" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AP5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AQ5" t="n">
         <v>45</v>
       </c>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1242,87 +1260,87 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="V6" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W6" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X6" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AA6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="AC6" t="n">
         <v>8.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG6" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AI6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
         <v>100</v>
@@ -1331,23 +1349,25 @@
         <v>900</v>
       </c>
       <c r="AL6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AP6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AQ6" t="n">
         <v>65</v>
       </c>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1381,96 +1401,96 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
         <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AA7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
         <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK7" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM7" t="n">
         <v>23</v>
@@ -1486,6 +1506,12 @@
       </c>
       <c r="AQ7" t="n">
         <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="8">
@@ -1520,22 +1546,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I8" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="L8" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1544,24 +1570,24 @@
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W8" t="n">
         <v>1.4</v>
@@ -1570,22 +1596,22 @@
         <v>2.75</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AA8" t="n">
         <v>5.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
@@ -1597,33 +1623,35 @@
         <v>9.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
         <v>19</v>
       </c>
       <c r="AM8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO8" t="n">
         <v>151</v>
       </c>
       <c r="AP8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AQ8" t="n">
         <v>81</v>
       </c>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1657,102 +1685,102 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H9" t="n">
         <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
         <v>2.3</v>
       </c>
       <c r="K9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2.2</v>
       </c>
-      <c r="L9" t="n">
-        <v>5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>11</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.87</v>
-      </c>
       <c r="R9" t="n">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X9" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AA9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB9" t="n">
         <v>7</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG9" t="n">
         <v>8</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11</v>
       </c>
       <c r="AH9" t="n">
         <v>7</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AK9" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="AL9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM9" t="n">
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO9" t="n">
         <v>51</v>
@@ -1761,8 +1789,10 @@
         <v>41</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1796,13 +1826,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J10" t="n">
         <v>3</v>
@@ -1811,7 +1841,7 @@
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -1826,10 +1856,10 @@
         <v>3.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1897,11 +1927,13 @@
         <v>34</v>
       </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
       </c>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1935,22 +1967,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -1965,54 +1997,54 @@
         <v>3.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
         <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
         <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI11" t="n">
         <v>15</v>
@@ -2021,26 +2053,28 @@
         <v>51</v>
       </c>
       <c r="AK11" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AL11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM11" t="n">
         <v>13</v>
       </c>
       <c r="AN11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO11" t="n">
         <v>29</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
         <v>34</v>
       </c>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2083,7 +2117,7 @@
         <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
@@ -2104,10 +2138,10 @@
         <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="R12" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -2180,6 +2214,8 @@
       <c r="AQ12" t="n">
         <v>34</v>
       </c>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2213,22 +2249,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K13" t="n">
         <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2237,24 +2273,24 @@
         <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W13" t="n">
         <v>1.36</v>
@@ -2269,19 +2305,19 @@
         <v>2.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
         <v>9</v>
       </c>
       <c r="AD13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE13" t="n">
         <v>17</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
       </c>
       <c r="AF13" t="n">
         <v>23</v>
@@ -2302,23 +2338,25 @@
         <v>151</v>
       </c>
       <c r="AL13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN13" t="n">
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
       </c>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2352,28 +2390,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="H14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="J14" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K14" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O14" t="n">
         <v>1.14</v>
@@ -2385,7 +2423,7 @@
         <v>1.44</v>
       </c>
       <c r="R14" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S14" t="n">
         <v>1.8</v>
@@ -2394,10 +2432,10 @@
         <v>2.05</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W14" t="n">
         <v>1.25</v>
@@ -2421,7 +2459,7 @@
         <v>8.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>11</v>
@@ -2430,10 +2468,10 @@
         <v>21</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI14" t="n">
         <v>17</v>
@@ -2445,16 +2483,16 @@
         <v>151</v>
       </c>
       <c r="AL14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
         <v>21</v>
       </c>
-      <c r="AM14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>17</v>
-      </c>
       <c r="AO14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP14" t="n">
         <v>41</v>
@@ -2462,6 +2500,8 @@
       <c r="AQ14" t="n">
         <v>41</v>
       </c>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2495,16 +2535,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
         <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
         <v>2.25</v>
@@ -2516,7 +2556,7 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
         <v>1.22</v>
@@ -2525,7 +2565,7 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
         <v>2.05</v>
@@ -2539,16 +2579,16 @@
         <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X15" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA15" t="n">
         <v>12</v>
@@ -2575,25 +2615,25 @@
         <v>6.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
         <v>41</v>
       </c>
       <c r="AK15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN15" t="n">
         <v>9.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP15" t="n">
         <v>17</v>
@@ -2601,6 +2641,8 @@
       <c r="AQ15" t="n">
         <v>23</v>
       </c>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2634,81 +2676,81 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J16" t="n">
         <v>2.88</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="R16" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V16" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="W16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="Z16" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AA16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC16" t="n">
         <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AH16" t="n">
         <v>6.5</v>
@@ -2720,16 +2762,16 @@
         <v>51</v>
       </c>
       <c r="AK16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM16" t="n">
         <v>17</v>
       </c>
       <c r="AN16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO16" t="n">
         <v>34</v>
@@ -2740,6 +2782,8 @@
       <c r="AQ16" t="n">
         <v>34</v>
       </c>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2776,7 +2820,7 @@
         <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
         <v>1.73</v>
@@ -2797,28 +2841,28 @@
         <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="R17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T17" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U17" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V17" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W17" t="n">
         <v>1.3</v>
@@ -2839,7 +2883,7 @@
         <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
         <v>41</v>
@@ -2854,7 +2898,7 @@
         <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI17" t="n">
         <v>13</v>
@@ -2866,7 +2910,7 @@
         <v>151</v>
       </c>
       <c r="AL17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM17" t="n">
         <v>9.5</v>
@@ -2883,6 +2927,8 @@
       <c r="AQ17" t="n">
         <v>21</v>
       </c>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2916,30 +2962,30 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I18" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L18" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P18" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="Q18" t="n">
         <v>1.93</v>
@@ -2962,37 +3008,37 @@
         <v>2.57</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AA18" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>13.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
         <v>120</v>
@@ -3001,7 +3047,7 @@
         <v>900</v>
       </c>
       <c r="AL18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AM18" t="n">
         <v>40</v>
@@ -3018,6 +3064,8 @@
       <c r="AQ18" t="n">
         <v>80</v>
       </c>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3051,44 +3099,44 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H19" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I19" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="J19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="V19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
         <v>1.39</v>
@@ -3103,31 +3151,31 @@
         <v>1.78</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AC19" t="n">
         <v>8</v>
       </c>
       <c r="AD19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF19" t="n">
         <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH19" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AI19" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ19" t="n">
         <v>80</v>
@@ -3136,23 +3184,25 @@
         <v>600</v>
       </c>
       <c r="AL19" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AM19" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO19" t="n">
         <v>150</v>
       </c>
       <c r="AP19" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AQ19" t="n">
         <v>60</v>
       </c>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3186,58 +3236,58 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="J20" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="K20" t="n">
         <v>2.3</v>
       </c>
       <c r="L20" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R20" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>2.39</v>
+        <v>2.55</v>
       </c>
       <c r="V20" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AC20" t="n">
         <v>6.8</v>
@@ -3246,10 +3296,10 @@
         <v>8.25</v>
       </c>
       <c r="AE20" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG20" t="n">
         <v>12.5</v>
@@ -3273,17 +3323,19 @@
         <v>40</v>
       </c>
       <c r="AN20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO20" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AP20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AQ20" t="n">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3323,102 +3375,104 @@
         <v>3.15</v>
       </c>
       <c r="I21" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="J21" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="K21" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="L21" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="P21" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="R21" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="V21" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="W21" t="n">
         <v>1.38</v>
       </c>
       <c r="X21" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.03</v>
+        <v>1.87</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH21" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AI21" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ21" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AK21" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AL21" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AM21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AN21" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
       </c>
       <c r="AP21" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>24</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3542,6 +3596,8 @@
       <c r="AQ22" t="n">
         <v>55</v>
       </c>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3578,19 +3634,19 @@
         <v>2.22</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L23" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
@@ -3602,7 +3658,7 @@
         <v>1.37</v>
       </c>
       <c r="P23" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="Q23" t="n">
         <v>2.1</v>
@@ -3631,19 +3687,19 @@
         <v>1.85</v>
       </c>
       <c r="AA23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AC23" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD23" t="n">
         <v>21</v>
       </c>
       <c r="AE23" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF23" t="n">
         <v>32</v>
@@ -3652,7 +3708,7 @@
         <v>6.6</v>
       </c>
       <c r="AH23" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AI23" t="n">
         <v>15</v>
@@ -3664,23 +3720,25 @@
         <v>700</v>
       </c>
       <c r="AL23" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AM23" t="n">
         <v>15.5</v>
       </c>
       <c r="AN23" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AO23" t="n">
         <v>40</v>
       </c>
       <c r="AP23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AQ23" t="n">
-        <v>40</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3714,87 +3772,87 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="H24" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I24" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J24" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="K24" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L24" t="n">
         <v>2.07</v>
       </c>
-      <c r="L24" t="n">
-        <v>2.18</v>
-      </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="P24" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="R24" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="W24" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="X24" t="n">
-        <v>2.57</v>
+        <v>2.72</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AA24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AB24" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC24" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AE24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF24" t="n">
         <v>65</v>
       </c>
-      <c r="AF24" t="n">
-        <v>60</v>
-      </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AH24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ24" t="n">
         <v>90</v>
@@ -3803,23 +3861,25 @@
         <v>700</v>
       </c>
       <c r="AL24" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AM24" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AN24" t="n">
         <v>8</v>
       </c>
       <c r="AO24" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3889,6 +3949,8 @@
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3922,112 +3984,114 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="H26" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="J26" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="K26" t="n">
         <v>2.15</v>
       </c>
       <c r="L26" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R26" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="V26" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W26" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X26" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AA26" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB26" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD26" t="n">
         <v>10</v>
       </c>
       <c r="AE26" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG26" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AH26" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AI26" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AK26" t="n">
         <v>900</v>
       </c>
       <c r="AL26" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AP26" t="n">
         <v>70</v>
       </c>
       <c r="AQ26" t="n">
-        <v>70</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:AS26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,38 +464,3634 @@
           <t>Away</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_H_FT</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_D_FT</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_A_FT</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_H_HT</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_D_HT</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_A_HT</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over05_FT</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under05_FT</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over15_FT</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under15_FT</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over25_FT</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under25_FT</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over3_FT</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under3_FT</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over35_FT</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under35_FT</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over05_HT</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under05_HT</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_BTTS_Yes</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_BTTS_No</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-0</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-0</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-1</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-0</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-2</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-0</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over2_FT</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under2_FT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>MTZPrgS6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>AUSTRALIA - A-LEAGUE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Melbourne City</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Newcastle Jets</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>xbDea3zG</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Dukla Prague</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Karvina</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>M1TsUtPF</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>EGYPT - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ghazl El Mahallah</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ZED</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>700</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>M53Vl2rh</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EGYPT - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>National Bank Egypt</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>IXdvmtD4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EGYPT - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pyramids</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>OMNIEsgc</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Hull</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Oxford Utd</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>501</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AwMQCLN9</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Millwall</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>13</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EmEgEDsH</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Portsmouth</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>501</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>rPNt6POp</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Watford</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Swansea</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AF72CiCT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ENGLAND - CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Stoke</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>hvVsbgm2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GERMANY - 3. LIGA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Aue</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>vDMLhbBM</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GERMANY - 3. LIGA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Mannheim</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sandhausen</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>hxz23lPs</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GERMANY - 3. LIGA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SG Dynamo Dresden</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dortmund II</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N14" t="n">
+        <v>19</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>OpbhmxZq</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GERMANY - 3. LIGA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Viktoria Koln</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>RW Essen</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>byITLdu9</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GERMANY - 3. LIGA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Munich 1860</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Wp0yNDdU</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>INDIA - ISL</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kerala Blasters</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>15</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>KQAPYN4F</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>INDONESIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Malut United</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Persita</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>900</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>150</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Gh4YW1ZR</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>INDONESIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Persebaya</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>PSIS Semarang</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>YVeJjE04</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LATVIA - VIRSLIGA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>FK Liepaja</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tukums 2000</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>175</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>tdaRlhVG</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LATVIA - VIRSLIGA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Super Nova</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Metta</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>E5qQa5mf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MALAYSIA - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Kuching City FC</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Kedah</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ppf4pg9a</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>OFK Beograd</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>700</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SA4p2GkJ</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SLOVENIA - PRVA LIGA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Primorje</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Maribor</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>K4iWPJsQ</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>12/03/2025</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Koper</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Celje</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>n1dx4xL6</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>12/03/2025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SLOVENIA - PRVA LIGA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>O. Ljubljana</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Mura</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>120</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-12.xlsx
@@ -978,48 +978,48 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="H4" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>2.72</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N4" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P4" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W4" t="n">
         <v>1.5</v>
@@ -1028,61 +1028,61 @@
         <v>2.42</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AA4" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AF4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO4" t="n">
         <v>35</v>
       </c>
-      <c r="AG4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>700</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>50</v>
-      </c>
       <c r="AP4" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
@@ -1119,108 +1119,108 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>4.15</v>
       </c>
       <c r="K5" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="L5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="R5" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>4.6</v>
+        <v>4.85</v>
       </c>
       <c r="V5" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X5" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AA5" t="n">
         <v>7.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE5" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AG5" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ5" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK5" t="n">
         <v>101</v>
       </c>
       <c r="AL5" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AM5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ5" t="n">
         <v>45</v>
@@ -1260,34 +1260,34 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="K6" t="n">
         <v>2.02</v>
       </c>
       <c r="L6" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="Q6" t="n">
         <v>2.15</v>
@@ -1298,70 +1298,70 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="V6" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W6" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X6" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AA6" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AC6" t="n">
         <v>8.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF6" t="n">
         <v>32</v>
       </c>
       <c r="AG6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AH6" t="n">
         <v>6.1</v>
       </c>
-      <c r="AH6" t="n">
-        <v>6</v>
-      </c>
       <c r="AI6" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ6" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK6" t="n">
         <v>800</v>
       </c>
       <c r="AL6" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AM6" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AP6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AQ6" t="n">
         <v>50</v>
@@ -1401,54 +1401,54 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="X7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y7" t="n">
         <v>2.1</v>
@@ -1457,28 +1457,28 @@
         <v>1.67</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI7" t="n">
         <v>21</v>
@@ -1490,10 +1490,10 @@
         <v>501</v>
       </c>
       <c r="AL7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AM7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN7" t="n">
         <v>17</v>
@@ -1570,16 +1570,16 @@
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1590,46 +1590,46 @@
         <v>1.33</v>
       </c>
       <c r="W8" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X8" t="n">
         <v>2.75</v>
       </c>
       <c r="Y8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB8" t="n">
         <v>4.75</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
         <v>41</v>
       </c>
       <c r="AJ8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>5.75</v>
@@ -1697,42 +1697,42 @@
         <v>2.2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W9" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X9" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y9" t="n">
         <v>2.1</v>
@@ -1744,7 +1744,7 @@
         <v>6</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC9" t="n">
         <v>8.5</v>
@@ -1753,13 +1753,13 @@
         <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG9" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH9" t="n">
         <v>7.5</v>
@@ -1771,10 +1771,10 @@
         <v>67</v>
       </c>
       <c r="AK9" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM9" t="n">
         <v>29</v>
@@ -1786,7 +1786,7 @@
         <v>67</v>
       </c>
       <c r="AP9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ9" t="n">
         <v>51</v>
@@ -1826,63 +1826,63 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="V10" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="W10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB10" t="n">
         <v>11</v>
@@ -1891,19 +1891,19 @@
         <v>9.5</v>
       </c>
       <c r="AD10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE10" t="n">
         <v>21</v>
       </c>
-      <c r="AE10" t="n">
-        <v>19</v>
-      </c>
       <c r="AF10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI10" t="n">
         <v>15</v>
@@ -1912,10 +1912,10 @@
         <v>51</v>
       </c>
       <c r="AK10" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AL10" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM10" t="n">
         <v>15</v>
@@ -1930,7 +1930,7 @@
         <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
@@ -1997,18 +1997,18 @@
         <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V11" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W11" t="n">
         <v>1.5</v>
@@ -2108,13 +2108,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J12" t="n">
         <v>2.63</v>
@@ -2138,10 +2138,10 @@
         <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -2182,13 +2182,13 @@
         <v>26</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
         <v>6</v>
       </c>
       <c r="AI12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ12" t="n">
         <v>41</v>
@@ -2197,7 +2197,7 @@
         <v>151</v>
       </c>
       <c r="AL12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM12" t="n">
         <v>21</v>
@@ -2255,7 +2255,7 @@
         <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
         <v>2.63</v>
@@ -2279,10 +2279,10 @@
         <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -2293,19 +2293,19 @@
         <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB13" t="n">
         <v>11</v>
@@ -2390,22 +2390,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K14" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
@@ -2426,16 +2426,16 @@
         <v>2.5</v>
       </c>
       <c r="S14" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T14" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W14" t="n">
         <v>1.25</v>
@@ -2444,22 +2444,22 @@
         <v>3.75</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC14" t="n">
         <v>8.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>11</v>
@@ -2474,7 +2474,7 @@
         <v>9.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
         <v>41</v>
@@ -2483,22 +2483,22 @@
         <v>151</v>
       </c>
       <c r="AL14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN14" t="n">
         <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2535,60 +2535,60 @@
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I15" t="n">
         <v>2.6</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.63</v>
-      </c>
       <c r="J15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L15" t="n">
         <v>3.1</v>
       </c>
-      <c r="K15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.2</v>
-      </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="R15" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="W15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X15" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA15" t="n">
         <v>11</v>
@@ -2597,37 +2597,37 @@
         <v>15</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
         <v>26</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
         <v>26</v>
       </c>
       <c r="AG15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI15" t="n">
         <v>12</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>11</v>
       </c>
       <c r="AJ15" t="n">
         <v>41</v>
       </c>
       <c r="AK15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN15" t="n">
         <v>10</v>
@@ -2676,22 +2676,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J16" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
@@ -2714,10 +2714,10 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V16" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W16" t="n">
         <v>1.44</v>
@@ -2726,16 +2726,16 @@
         <v>2.63</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA16" t="n">
         <v>7.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
         <v>9.5</v>
@@ -2774,10 +2774,10 @@
         <v>11</v>
       </c>
       <c r="AO16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-12.xlsx
@@ -978,19 +978,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="I4" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="L4" t="n">
         <v>3.3</v>
@@ -1025,7 +1025,7 @@
         <v>1.5</v>
       </c>
       <c r="X4" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Y4" t="n">
         <v>1.93</v>
@@ -1034,22 +1034,22 @@
         <v>1.78</v>
       </c>
       <c r="AA4" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
         <v>10.75</v>
       </c>
       <c r="AD4" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
       </c>
       <c r="AF4" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG4" t="n">
         <v>5.4</v>
@@ -1058,25 +1058,25 @@
         <v>5.3</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="n">
         <v>800</v>
       </c>
       <c r="AL4" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AM4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN4" t="n">
         <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
@@ -1401,13 +1401,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
         <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
         <v>2.3</v>
@@ -1457,7 +1457,7 @@
         <v>1.67</v>
       </c>
       <c r="AA7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB7" t="n">
         <v>7</v>
@@ -1496,10 +1496,10 @@
         <v>26</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP7" t="n">
         <v>41</v>
@@ -1552,16 +1552,16 @@
         <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
         <v>1.67</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1590,46 +1590,46 @@
         <v>1.33</v>
       </c>
       <c r="W8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z8" t="n">
         <v>1.4</v>
       </c>
-      <c r="X8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AA8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB8" t="n">
         <v>5</v>
       </c>
-      <c r="AB8" t="n">
-        <v>4.75</v>
-      </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
@@ -1639,16 +1639,16 @@
         <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AP8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AQ8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1706,7 +1706,7 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -1715,7 +1715,7 @@
         <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R9" t="n">
         <v>1.8</v>
@@ -1729,10 +1729,10 @@
         <v>1.29</v>
       </c>
       <c r="W9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y9" t="n">
         <v>2.1</v>
@@ -1826,13 +1826,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
         <v>3.1</v>
@@ -1864,10 +1864,10 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
         <v>1.5</v>
@@ -1876,22 +1876,22 @@
         <v>2.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA10" t="n">
         <v>7</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
         <v>9.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -1906,7 +1906,7 @@
         <v>6</v>
       </c>
       <c r="AI10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
         <v>51</v>
@@ -1921,13 +1921,13 @@
         <v>15</v>
       </c>
       <c r="AN10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
         <v>34</v>
       </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
@@ -1967,13 +1967,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J11" t="n">
         <v>3.25</v>
@@ -1982,7 +1982,7 @@
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -1991,24 +1991,24 @@
         <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W11" t="n">
         <v>1.5</v>
@@ -2017,16 +2017,16 @@
         <v>2.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
         <v>10</v>
@@ -2041,19 +2041,19 @@
         <v>34</v>
       </c>
       <c r="AG11" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH11" t="n">
         <v>6</v>
       </c>
       <c r="AI11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
         <v>51</v>
       </c>
       <c r="AK11" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2068,10 +2068,10 @@
         <v>29</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
